--- a/POMIARY 1 PROJEKT.xlsx
+++ b/POMIARY 1 PROJEKT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48503\Desktop\cpp\4-th sem - DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7C166D-A442-4FF3-9A55-8E0F9DE29B11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010FDB9-5247-4818-BABD-87B794140D06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,79 +385,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -509,82 +525,217 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.13597999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.77196900000000002</v>
+      </c>
+      <c r="D5">
+        <v>1.6006469999999999</v>
+      </c>
+      <c r="E5">
+        <v>8.2329939999999997</v>
+      </c>
+      <c r="F5">
+        <v>16.876484000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.132962</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.74275599999999997</v>
+      </c>
+      <c r="J5">
+        <v>1.548818</v>
+      </c>
+      <c r="K5">
+        <v>8.0107769999999991</v>
+      </c>
+      <c r="L5">
+        <v>16.088607</v>
+      </c>
+      <c r="N5">
+        <v>0.18510599999999999</v>
+      </c>
+      <c r="O5">
+        <v>1.250772</v>
+      </c>
+      <c r="P5">
+        <v>3.1256689999999998</v>
+      </c>
+      <c r="Q5">
+        <v>21.404696999999999</v>
+      </c>
+      <c r="R5">
+        <v>56.535533999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>0.38487700000000002</v>
+      </c>
+      <c r="C6">
+        <v>2.166328</v>
+      </c>
+      <c r="D6">
+        <v>4.3785980000000002</v>
+      </c>
+      <c r="E6">
+        <v>22.799461999999998</v>
+      </c>
+      <c r="F6">
+        <v>47.042205000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.36088300000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.0333679999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.0846900000000002</v>
+      </c>
+      <c r="K6">
+        <v>21.135255000000001</v>
+      </c>
+      <c r="L6">
+        <v>43.808025999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.34389500000000001</v>
+      </c>
+      <c r="O6">
+        <v>1.9613849999999999</v>
+      </c>
+      <c r="P6">
+        <v>3.8737810000000001</v>
+      </c>
+      <c r="Q6">
+        <v>20.165937</v>
+      </c>
+      <c r="R6">
+        <v>44.991503000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>0.18094399999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.075167</v>
+      </c>
+      <c r="D7">
+        <v>2.2299557999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19.3191101</v>
+      </c>
+      <c r="F7">
+        <v>27.580960000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.193495</v>
+      </c>
+      <c r="I7">
+        <v>1.1846220000000001</v>
+      </c>
+      <c r="J7">
+        <v>2.5641660000000002</v>
+      </c>
+      <c r="K7">
+        <v>13.429065</v>
+      </c>
+      <c r="L7">
+        <v>26.00666</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.18900400000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.048686</v>
+      </c>
+      <c r="P7">
+        <v>2.807102</v>
+      </c>
+      <c r="Q7">
+        <v>12.575462</v>
+      </c>
+      <c r="R7">
+        <v>24.326160000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -640,80 +791,215 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
+      <c r="B13">
+        <v>0.23294200000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.18462</v>
+      </c>
+      <c r="D13">
+        <v>2.433621</v>
+      </c>
+      <c r="E13">
+        <v>12.588112000000001</v>
+      </c>
+      <c r="F13">
+        <v>13.275753</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.83977000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.48983900000000002</v>
+      </c>
+      <c r="J13">
+        <v>1.0386709999999999</v>
+      </c>
+      <c r="K13">
+        <v>5.239325</v>
+      </c>
+      <c r="L13">
+        <v>10.586606</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.70979000000000003</v>
+      </c>
+      <c r="O13">
+        <v>0.42088500000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.90470899999999999</v>
+      </c>
+      <c r="Q13">
+        <v>4.521541</v>
+      </c>
+      <c r="R13">
+        <v>9.2040699999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
+      <c r="B14">
+        <v>0.32391500000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.7694529999999999</v>
+      </c>
+      <c r="D14">
+        <v>3.5568650000000002</v>
+      </c>
+      <c r="E14">
+        <v>18.363118</v>
+      </c>
+      <c r="F14">
+        <v>38.098804999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.757436</v>
+      </c>
+      <c r="J14">
+        <v>3.3499310000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <v>17.4299</v>
+      </c>
+      <c r="L14">
+        <v>36.010477999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.29690699999999998</v>
+      </c>
+      <c r="O14">
+        <v>1.6324810000000001</v>
+      </c>
+      <c r="P14">
+        <v>3.3499430000000001</v>
+      </c>
+      <c r="Q14">
+        <v>17.529423999999999</v>
+      </c>
+      <c r="R14">
+        <v>35.527614</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
+      <c r="B15">
+        <v>0.16894300000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.168623</v>
+      </c>
+      <c r="D15">
+        <v>2.201295</v>
+      </c>
+      <c r="E15">
+        <v>11.101651</v>
+      </c>
+      <c r="F15">
+        <v>20.755949000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.15095600000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.88371200000000005</v>
+      </c>
+      <c r="J15">
+        <v>1.939711</v>
+      </c>
+      <c r="K15">
+        <v>8.5562550000000002</v>
+      </c>
+      <c r="L15">
+        <v>15.693243000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.14297199999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.82473300000000005</v>
+      </c>
+      <c r="P15">
+        <v>1.9003939999999999</v>
+      </c>
+      <c r="Q15">
+        <v>7.6155609999999996</v>
+      </c>
+      <c r="R15">
+        <v>15.459588</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -754,16 +1040,109 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
+      <c r="B21" s="1">
+        <v>0.66998999999999997</v>
+      </c>
+      <c r="C21">
+        <v>0.40688800000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.83575200000000005</v>
+      </c>
+      <c r="E21">
+        <v>4.2266310000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.4512800000000006</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.43985999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.303925</v>
+      </c>
+      <c r="J21">
+        <v>0.66680499999999998</v>
+      </c>
+      <c r="K21">
+        <v>3.4079039999999998</v>
+      </c>
+      <c r="L21">
+        <v>7.0807529999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
+      <c r="B22">
+        <v>0.338893</v>
+      </c>
+      <c r="C22">
+        <v>1.6874610000000001</v>
+      </c>
+      <c r="D22">
+        <v>3.3597890000000001</v>
+      </c>
+      <c r="E22">
+        <v>17.440408000000001</v>
+      </c>
+      <c r="F22">
+        <v>35.350779000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.29990499999999998</v>
+      </c>
+      <c r="I22">
+        <v>2.3093590000000002</v>
+      </c>
+      <c r="J22">
+        <v>4.7544740000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>24.759087000000001</v>
+      </c>
+      <c r="L22">
+        <v>48.895983999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
+      <c r="B23">
+        <v>0.142184</v>
+      </c>
+      <c r="C23">
+        <v>0.91170600000000002</v>
+      </c>
+      <c r="D23">
+        <v>2.1710029999999998</v>
+      </c>
+      <c r="E23">
+        <v>7.8944669999999997</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15.987399999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.14496300000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.21306</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.8704000000000001</v>
+      </c>
+      <c r="K23">
+        <v>9.7245360000000005</v>
+      </c>
+      <c r="L23">
+        <v>19.599802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
